--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/15/seed2/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.977399999999992</v>
+        <v>-7.019899999999991</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.815099999999997</v>
+        <v>-7.764500000000001</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.8309</v>
+        <v>-8.776499999999997</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.284399999999997</v>
+        <v>-7.250999999999994</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.407699999999998</v>
+        <v>-8.512699999999997</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.648200000000005</v>
+        <v>-8.743199999999996</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.117199999999996</v>
+        <v>-7.044699999999997</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1338,7 +1338,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.415999999999994</v>
+        <v>-6.482699999999997</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.4163</v>
+        <v>-8.6035</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1440,7 +1440,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.171999999999993</v>
+        <v>-8.173899999999998</v>
       </c>
       <c r="E59" t="n">
         <v>16.47</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.051100000000002</v>
+        <v>-7.185199999999996</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.386599999999999</v>
+        <v>-6.188299999999999</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.816599999999999</v>
+        <v>-9.041399999999998</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.406499999999995</v>
+        <v>-6.579399999999998</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2018,7 +2018,7 @@
         <v>-11.3</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.704799999999993</v>
+        <v>-6.738299999999996</v>
       </c>
       <c r="E93" t="n">
         <v>18.32</v>
